--- a/biology/Botanique/Richmond_Park/Richmond_Park.xlsx
+++ b/biology/Botanique/Richmond_Park/Richmond_Park.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Richmond Park est le plus grand parc de Londres, il est situé dans le district de Richmond upon Thames. C'est l'un des huit parcs royaux de la capitale. Sa superficie est de 9,5 km2. On peut y trouver une multitude d'espèces animales, tel l'écureuil cendré. 
 Il y a surtout la présence de près de 650 cerfs et biches en liberté. Ils sont peu farouches, car habitués à l'homme. Leur présence dans le parc remonte à plus de 300 ans. Aussi est-il possible de se retrouver, au détour d'un bosquet, à quelques mètres d'un mâle arborant de superbes bois et ruminant paisiblement. Cependant, durant la période du brame, un affichage informe les promeneurs du danger qu'il y a à les approcher. Seuls les chiens que leurs maîtres promènent sans laisse perturbent leur tranquillité, ainsi que celle des autres espèces du parc.
@@ -512,7 +524,9 @@
           <t>Superficie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Richmond Park est le plus grand des parcs royaux de Londres, avec ses 955 hectares, comparables à la superficie du Bois de Vincennes à Paris, et près de 3 fois la surface de Central Park à New York.
 </t>
@@ -543,7 +557,9 @@
           <t>Bâtiments</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le mur de briques qui entoure Richmond Park mesure 13 km de long et 2,7 m de haut. Une grande partie du mur est désignée par Historic England comme un bâtiment classé au grade II.
 Au centre du parc se trouve la White Lodge, vaste maison du XVIIIe siècle, résidence favorite de la reine Charlotte, l'épouse de George III. Vers la fin du XIXe siècle, elle devient la maison du duc et de la duchesse de Teck (qui seront en 1910 le roi George V et la reine Mary). C'est ici que leur fils aîné, le futur roi Édouard VIII, naît en 1894. Aujourd'hui, la maison appartient à la Royal Ballet School (école de ballet).
@@ -576,7 +592,9 @@
           <t>Sites</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il y a environ 30 étangs dans le parc. Certains, notamment Barn Wood Pond, Bishop's Pond, Gallows Pond, Leg of Mutton Pond, Martin's Pond et White Ash Pond, ont été créés pour assécher les terres ou fournir de l'eau pour le bétail. Le ruisseau Beverley et les deux étangs de Pen sont les zones d’eau les plus visibles du parc.
 Les pentes ouvertes et les bois du parc sont basés sur des sols acides des basses terres. La prairie est principalement gérée par pâturage. Le parc contient de nombreux bois et bosquets, certains créés avec les dons du public.
